--- a/CreditCards.xlsx
+++ b/CreditCards.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>User</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Limit</t>
-  </si>
-  <si>
     <t>Opened</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t>Total Credit Line</t>
-  </si>
-  <si>
     <t>Rewards</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>Apt</t>
   </si>
   <si>
-    <t>x5 Gasoline (Chooseable)</t>
-  </si>
-  <si>
     <t>Spectrum-Rewards Cycle</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
     <t>Best Buy/Parking</t>
   </si>
   <si>
-    <t>Life Insurance</t>
-  </si>
-  <si>
     <t>Discover it</t>
   </si>
   <si>
@@ -159,6 +147,78 @@
   </si>
   <si>
     <t>Current Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totals </t>
+  </si>
+  <si>
+    <t>Credit Limit</t>
+  </si>
+  <si>
+    <t>5% Paypal/Restaurants</t>
+  </si>
+  <si>
+    <t>Rewards Change</t>
+  </si>
+  <si>
+    <t>Rewards are Choosable</t>
+  </si>
+  <si>
+    <t>5% Amazon</t>
+  </si>
+  <si>
+    <t>Life Insurance/ Renters Insurance</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>% JcPenney</t>
+  </si>
+  <si>
+    <t>3% Dining/ 1% Anything</t>
+  </si>
+  <si>
+    <t>5% Gasoline</t>
+  </si>
+  <si>
+    <t>5% BestBuy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also has Financing </t>
+  </si>
+  <si>
+    <t>It was for Balance Transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rewards Change </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Car Loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principal </t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Pmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest </t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Interest</t>
   </si>
 </sst>
 </file>
@@ -203,12 +263,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -220,11 +286,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -239,10 +306,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -260,10 +323,38 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -541,34 +632,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8" style="4" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.85546875" style="4" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -579,344 +669,501 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2754</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="10">
+        <v>6000</v>
+      </c>
+      <c r="F2" s="24">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="23">
+        <v>40.72</v>
+      </c>
+      <c r="I2" s="17">
+        <v>41597</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="L2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>6668</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2550</v>
+      </c>
+      <c r="F3" s="24">
+        <v>35</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
+        <v>42944</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3456</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>106.2</v>
+      </c>
+      <c r="I4" s="17">
+        <v>43636</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="L4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1082</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="24">
+        <v>25</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23">
+        <v>135</v>
+      </c>
+      <c r="I5" s="17">
+        <v>43246</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1884</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="25">
+        <v>25</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <v>43489</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>81002</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="11">
+        <v>6000</v>
+      </c>
+      <c r="F7" s="25">
+        <v>35</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <v>42913</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7199</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>43246</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4685</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1600</v>
+      </c>
+      <c r="F9" s="25">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23">
+        <v>21.62</v>
+      </c>
+      <c r="I9" s="17">
+        <v>42618</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="K9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2800</v>
+      </c>
+      <c r="F10" s="25">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>42965</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1900</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>43473</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="12">
-        <v>6000</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>41597</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2">
+      <c r="M11" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="12">
         <f>SUM(E2:E11)</f>
         <v>29050</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="H23" s="7">
+        <f>SUM(H2:H11)</f>
+        <v>303.54000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>6618</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="12">
-        <v>2550</v>
-      </c>
-      <c r="F3" s="12">
-        <v>35</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>42944</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="12">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>43636</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2000</v>
-      </c>
-      <c r="F5" s="12">
-        <v>25</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>43246</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="13">
-        <v>3000</v>
-      </c>
-      <c r="F6" s="13">
-        <v>25</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>43489</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="13">
-        <v>6000</v>
-      </c>
-      <c r="F7" s="13">
-        <v>35</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>42913</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="13">
-        <v>1200</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>43246</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1600</v>
-      </c>
-      <c r="F9" s="13">
-        <v>10</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>42618</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="13">
-        <v>2800</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>42965</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1900</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>43473</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>10</v>
+      <c r="D26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="12">
+        <v>8501.3799999999992</v>
+      </c>
+      <c r="F26" s="12">
+        <v>224.48</v>
+      </c>
+      <c r="G26" s="22">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H26" s="7">
+        <v>900</v>
+      </c>
+      <c r="I26" s="21">
+        <v>43662</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B23:D23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/CreditCards.xlsx
+++ b/CreditCards.xlsx
@@ -338,9 +338,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -349,6 +346,9 @@
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -713,13 +713,13 @@
       <c r="E2" s="10">
         <v>6000</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <v>0</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>40.72</v>
       </c>
       <c r="I2" s="17">
@@ -754,13 +754,13 @@
       <c r="E3" s="10">
         <v>2550</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <v>35</v>
       </c>
       <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <v>0</v>
       </c>
       <c r="I3" s="17">
@@ -795,13 +795,13 @@
       <c r="E4" s="10">
         <v>2000</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>0</v>
       </c>
       <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <v>106.2</v>
       </c>
       <c r="I4" s="17">
@@ -836,13 +836,13 @@
       <c r="E5" s="10">
         <v>2000</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>25</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>135</v>
       </c>
       <c r="I5" s="17">
@@ -873,13 +873,13 @@
       <c r="E6" s="11">
         <v>3000</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>25</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>0</v>
       </c>
       <c r="I6" s="17">
@@ -910,13 +910,13 @@
       <c r="E7" s="11">
         <v>6000</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>35</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>0</v>
       </c>
       <c r="I7" s="17">
@@ -949,13 +949,13 @@
       <c r="E8" s="11">
         <v>1200</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>0</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>0</v>
       </c>
       <c r="I8" s="17">
@@ -988,13 +988,13 @@
       <c r="E9" s="11">
         <v>1600</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>10</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>21.62</v>
       </c>
       <c r="I9" s="17">
@@ -1027,13 +1027,13 @@
       <c r="E10" s="11">
         <v>2800</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>1</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>0</v>
       </c>
       <c r="I10" s="17">
@@ -1068,13 +1068,13 @@
       <c r="E11" s="11">
         <v>1900</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>0</v>
       </c>
       <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>0</v>
       </c>
       <c r="I11" s="17">
@@ -1092,11 +1092,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="12">
         <f>SUM(E2:E11)</f>
         <v>29050</v>
@@ -1150,13 +1150,13 @@
       <c r="F26" s="12">
         <v>224.48</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="21">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="H26" s="7">
         <v>900</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="20">
         <v>43662</v>
       </c>
     </row>

--- a/CreditCards.xlsx
+++ b/CreditCards.xlsx
@@ -635,7 +635,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="22">
-        <v>40.72</v>
+        <v>70</v>
       </c>
       <c r="I2" s="17">
         <v>41597</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I3" s="17">
         <v>42944</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="22">
-        <v>106.2</v>
+        <v>90</v>
       </c>
       <c r="I4" s="17">
         <v>43636</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="22">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="I5" s="17">
         <v>43246</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="22">
-        <v>21.62</v>
+        <v>53.12</v>
       </c>
       <c r="I9" s="17">
         <v>42618</v>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="H23" s="7">
         <f>SUM(H2:H11)</f>
-        <v>303.54000000000002</v>
+        <v>298.12</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">

--- a/CreditCards.xlsx
+++ b/CreditCards.xlsx
@@ -119,9 +119,6 @@
     <t>Apt</t>
   </si>
   <si>
-    <t>Spectrum-Rewards Cycle</t>
-  </si>
-  <si>
     <t>Verizon</t>
   </si>
   <si>
@@ -158,12 +155,6 @@
     <t>5% Paypal/Restaurants</t>
   </si>
   <si>
-    <t>Rewards Change</t>
-  </si>
-  <si>
-    <t>Rewards are Choosable</t>
-  </si>
-  <si>
     <t>5% Amazon</t>
   </si>
   <si>
@@ -185,15 +176,9 @@
     <t>5% BestBuy</t>
   </si>
   <si>
-    <t xml:space="preserve">Also has Financing </t>
-  </si>
-  <si>
     <t>It was for Balance Transfer</t>
   </si>
   <si>
-    <t xml:space="preserve">Rewards Change </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -219,6 +204,21 @@
   </si>
   <si>
     <t>Interest</t>
+  </si>
+  <si>
+    <t>Rwrds are Choosable</t>
+  </si>
+  <si>
+    <t>Rwrds Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwrds + Financing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwrds Change </t>
+  </si>
+  <si>
+    <t>Spectrum</t>
   </si>
 </sst>
 </file>
@@ -291,7 +291,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -349,6 +349,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -632,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,22 +646,22 @@
     <col min="1" max="1" width="8" style="4" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="7" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="7" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="4" customWidth="1"/>
     <col min="11" max="11" width="30.85546875" style="4" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" style="4" customWidth="1"/>
     <col min="13" max="13" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -670,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>27</v>
@@ -679,7 +682,7 @@
         <v>24</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -696,8 +699,9 @@
       <c r="M1" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2754</v>
       </c>
@@ -708,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="10">
         <v>6000</v>
@@ -726,7 +730,7 @@
         <v>41597</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>29</v>
@@ -735,10 +739,10 @@
         <v>9</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>6668</v>
       </c>
@@ -749,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="10">
         <v>2550</v>
@@ -767,19 +771,19 @@
         <v>42944</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3456</v>
       </c>
@@ -808,7 +812,7 @@
         <v>43636</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>25</v>
@@ -817,10 +821,10 @@
         <v>30</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1082</v>
       </c>
@@ -850,14 +854,14 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1884</v>
       </c>
@@ -865,10 +869,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="11">
         <v>3000</v>
@@ -887,14 +891,14 @@
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>81002</v>
       </c>
@@ -923,17 +927,17 @@
         <v>42913</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M7" s="19"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7199</v>
       </c>
@@ -944,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="11">
         <v>1200</v>
@@ -962,17 +966,17 @@
         <v>43246</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L8" s="18" t="s">
         <v>30</v>
       </c>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4685</v>
       </c>
@@ -1000,8 +1004,8 @@
       <c r="I9" s="17">
         <v>42618</v>
       </c>
-      <c r="J9" s="18" t="s">
-        <v>44</v>
+      <c r="J9" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>28</v>
@@ -1010,10 +1014,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
@@ -1039,22 +1043,22 @@
       <c r="I10" s="17">
         <v>42965</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>53</v>
+      <c r="J10" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" s="18" t="s">
         <v>30</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
@@ -1085,15 +1089,15 @@
         <v>21</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -1108,27 +1112,27 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1139,10 +1143,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E26" s="12">
         <v>8501.3799999999992</v>
